--- a/study/SSM.xlsx
+++ b/study/SSM.xlsx
@@ -30,8 +30,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -44,13 +44,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -58,7 +51,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -73,6 +104,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -81,64 +127,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,29 +149,37 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -196,7 +196,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,43 +322,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,121 +370,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,17 +390,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,6 +429,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -435,21 +477,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -457,33 +484,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,10 +495,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -507,133 +507,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -759,2505 +759,2316 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>		1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>、需要把</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>mybatis </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>mysql</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>log4j  jar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>包和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>jdbc  log4j  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>配置文件导入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>r</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>esource</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>		2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>、在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>resource</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>创建核心配置文件mybatis-config.xml</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>核心配置文件  有先后顺序</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>		3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>resource</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>创建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>mapper</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>包里面创建各</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>sql</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>映射文件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	sql</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>映射文件    都得添加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>dtd</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>		4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>、在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>util</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>里创建连接关闭</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>sqlsession</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的方法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>		5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>、UserMapper mapper=sqlSession.getMapper(UserMapper.class);   直接用接口里方法即可会为接口自动创建一个代理对象然后代理对象执行接口里面的方法</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>SqlSessionFactoryBuilder().build(i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>参数可以是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>InputStream,reader,configuration</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			openSession()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>参数为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>false</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>表示不自动提交</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>如果不自动 必须手动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>sqlsession.commit</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>每个线程都有自己的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>SqlSession</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>实例</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>它不能被共享</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>也不是线程安全的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>因此</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>最佳的作用域是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>request</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>或者在方法体内</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>connection</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>一样每次用都获取新连接用完必须关闭</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>SqlSessionFactory一旦创建就会一直在整个应用存在，没有理由销毁，所以写到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>util static</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>里创建一次那么这种存在于整个应用运行期间，并且同时只能存在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>一个对象实例就是单例模式</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>resultType</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>		select</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>标签得设置返回类型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>增删改不用因为接口返回类型是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>boolean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>就返回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>就返回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>1    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>MyBatis</a:t>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>两者都不用设置参数类型</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>方法返回类型为实体类</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>		resultType</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>就写实体类      但必须保证只能查到一条数据 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>是一个优秀的数据持久层框架，在实体类和</a:t>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>方法返回类型为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>list</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>类型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>		resultType</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>就写实体类      直接返回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>list	</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>返回单条记录返回类型为Map&lt;String,Object&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>,key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>就是字段名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>值就是对应的值 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	resultType</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>写</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>map</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>返回多条记录方法上加@MapKey("author")指定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>为哪个字段</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>表里叫啥这就写啥</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	     	       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>返回类型为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Map&lt;Integer,News&gt; ,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>键是指定的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>key,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>值是一条记录</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 	resultType</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>写</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>map					</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	resultMap="MyEmp" 			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>MyEmp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>对应的是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>resultMap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>标签里的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	    </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>SQL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>语句之间建立映射关系，是一种半自动化的</a:t>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>标签里的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>type="map" 		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>跟上面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>resultMap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>规律一样</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>		                  type="entity.News"		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>返回单条方法返回值可以用实体类</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>	column=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>从数据库中查询的字段名    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>property=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>对应赋值给实体类的那个对象</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>一对一关系：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>		&lt;resultMap type="entity.News" id="MyEmp2"&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			&lt;id column="id" property="id"/&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			&lt;result property="name" column="name"/&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			&lt;!-- property指定哪个属性是联合的对象 --&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			&lt;!-- javaType指定这个属性对象的类型 --&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			&lt;</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>ORM</a:t>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>association </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>property="user" javaType="entity.User"&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>				&lt;result column="name" property="name"/&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			&lt;/association&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>或            </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>实现</a:t>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>实体类</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>user</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的值为从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>test</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>接口的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>get</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>方法获取到，传的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>为新闻表查到的标题</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			&lt;association property="user" select="dao.TestMapper.getIdUser" column="title_id"&gt; &lt;/association&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>用于一对多  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>property</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>为集合引用名    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ofType</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>为集合泛型类型：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>		&lt;resultMap type="entity.Title" id="getTitle "&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			&lt;result property="id" column="id"/&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			&lt;result property="name" column="name"/&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			&lt;collection property="newss" ofType="entity.News"&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>				&lt;result property="id" column="id1"/&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>				&lt;result property="title_id" column="title_id"/&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>			&lt;/collection&gt; </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>		&lt;/resultMap&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>默认情况下</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>resultMap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>会自动匹配所有，但是加了内部嵌套就得改变</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>setting</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>里的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>value</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>才能自动匹配</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>	ORM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>为对象</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>关系映射：通过简单的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>xml</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>或者注解进行映射</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>将实体类和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>sql</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>语句建立联系</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>通过</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>javaBean</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>对象去操作表中的数据</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>数据持久化是将内存中的数据模型转换为存储模型</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>以及将存储模型转换为内存中的数据模型的统称</a:t>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>  &lt;association property="hotelXx" select="cn.travel.mapper.commentMapper.findHotelScore" column="id"&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>数据模型可以是任何数据结构或对象模型</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>存储模型可以是关系模型</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,xml</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>，二进制流等</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>、需要把</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>mybatis </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>mysql</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>log4j  jar</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>包和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>jdbc  log4j  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>配置文件导入</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>r</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>esource</a:t>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>        &lt;/association&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>		2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>、在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>resource</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>创建核心配置文件mybatis-config.xml</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>核心配置文件  有先后顺序</a:t>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>        &lt;collection property="labelDics" column="id" select="cn.travel.mapper.LabelDicMapper.findHotelFeature"&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>		3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>resource</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>创建</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>mapper</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>包里面创建各</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>sql</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>映射文件</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	sql</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>映射文件    都得添加</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>dtd</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>、在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>util</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>里创建连接关闭</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>sqlsession</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的方法</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>、UserMapper mapper=sqlSession.getMapper(UserMapper.class);   直接用接口里方法即可会为接口自动创建一个代理对象然后代理对象执行接口里面的方法</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>SqlSessionFactoryBuilder().build(i</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>n</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>参数可以是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>InputStream,reader,configuration</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			openSession()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>参数为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>false</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>表示不自动提交</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>如果不自动 必须手动</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>sqlsession.commit</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>每个线程都有自己的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>SqlSession</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>实例</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>它不能被共享</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>也不是线程安全的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>因此</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>最佳的作用域是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>request</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>或者在方法体内</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>connection</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>一样每次用都获取新连接用完必须关闭</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>SqlSessionFactory一旦创建就会一直在整个应用存在，没有理由销毁，所以写到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>util static</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>里创建一次那么这种存在于整个应用运行期间，并且同时只能存在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>一个对象实例就是单例模式</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>resultType</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		select</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>标签得设置返回类型</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>增删改不用因为接口返回类型是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>boolean</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>就返回</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>true</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>int</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>就返回</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>1    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>两者都不用设置参数类型</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>方法返回类型为实体类</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		resultType</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>就写实体类      但必须保证只能查到一条数据 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>方法返回类型为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>list</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>类型</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		resultType</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>就写实体类      直接返回</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>list	</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>返回单条记录返回类型为Map&lt;String,Object&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>,key</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>就是字段名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>值就是对应的值 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	resultType</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>写</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>map</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>返回多条记录方法上加@MapKey("author")指定</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>key</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>为哪个字段</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>表里叫啥这就写啥</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	     	       </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>返回类型为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Map&lt;Integer,News&gt; ,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>键是指定的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>key,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>值是一条记录</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> 	resultType</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>写</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>map					</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	resultMap="MyEmp" 			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>这个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>MyEmp</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>对应的是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>resultMap</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>标签里的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>id</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>     </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>标签里的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>type="map" 		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>跟上面</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>resultMap</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>规律一样</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		                  type="entity.News"		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>返回单条方法返回值可以用实体类</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	column=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>从数据库中查询的字段名    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>property=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>对应赋值给实体类的那个对象</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>一对一关系：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		&lt;resultMap type="entity.News" id="MyEmp2"&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;id column="id" property="id"/&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;result property="name" column="name"/&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;!-- property指定哪个属性是联合的对象 --&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;!-- javaType指定这个属性对象的类型 --&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>association </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>property="user" javaType="entity.User"&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>				&lt;result column="name" property="name"/&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;/association&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>或            </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>实体类</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>user</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的值为从</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>test</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>接口的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>get</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>方法获取到，传的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>id</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>为新闻表查到的标题</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>id</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;association property="user" select="dao.TestMapper.getIdUser" column="title_id"&gt; &lt;/association&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>用于一对多  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>property</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>为集合引用名    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ofType</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>为集合泛型类型：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		&lt;resultMap type="entity.Title" id="getTitle "&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;result property="id" column="id"/&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;result property="name" column="name"/&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;collection property="newss" ofType="entity.News"&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>				&lt;result property="id" column="id1"/&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>				&lt;result property="title_id" column="title_id"/&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;/collection&gt; </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		&lt;/resultMap&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>默认情况下</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>resultMap</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>会自动匹配所有，但是加了内部嵌套就得改变</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>setting</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>里的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>value</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>才能自动匹配</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>        &lt;/collection&gt;</a:t>
+          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -6360,16 +6171,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>27940</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>616585</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6386,7 +6197,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8214360" y="15495270"/>
+          <a:off x="11889105" y="15269210"/>
           <a:ext cx="6009640" cy="1790700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6402,16 +6213,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>147955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>103505</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>48260</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6428,7 +6239,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8376285" y="19211925"/>
+          <a:off x="10789920" y="19533235"/>
           <a:ext cx="7157720" cy="1924050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18003,8 +17814,8 @@
   <sheetPr/>
   <dimension ref="V94:X711"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A604" workbookViewId="0">
-      <selection activeCell="O533" sqref="O533"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="N275" sqref="N275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/study/SSM.xlsx
+++ b/study/SSM.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
-  <si>
-    <t>s</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
   <si>
     <t xml:space="preserve">    </t>
   </si>
@@ -29,10 +26,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -44,6 +41,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -51,7 +55,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,13 +117,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -97,30 +125,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,16 +153,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,21 +183,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -196,31 +193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,31 +205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,103 +217,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,6 +239,144 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -392,39 +389,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,11 +422,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,11 +478,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,10 +492,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -507,133 +504,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -707,4642 +704,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>523240</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="238125" y="394335"/>
-          <a:ext cx="11395075" cy="33587690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>、需要把</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>mybatis </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>mysql</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>log4j  jar</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>包和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>jdbc  log4j  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>配置文件导入</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>r</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>esource</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>		2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>、在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>resource</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>创建核心配置文件mybatis-config.xml</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>核心配置文件  有先后顺序</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>		3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>resource</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>创建</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>mapper</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>包里面创建各</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>sql</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>映射文件</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	sql</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>映射文件    都得添加</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>dtd</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>、在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>util</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>里创建连接关闭</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>sqlsession</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的方法</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>、UserMapper mapper=sqlSession.getMapper(UserMapper.class);   直接用接口里方法即可会为接口自动创建一个代理对象然后代理对象执行接口里面的方法</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>SqlSessionFactoryBuilder().build(i</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>n</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>参数可以是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>InputStream,reader,configuration</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			openSession()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>参数为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>false</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>表示不自动提交</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>如果不自动 必须手动</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>sqlsession.commit</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>每个线程都有自己的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>SqlSession</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>实例</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>它不能被共享</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>也不是线程安全的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>因此</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>最佳的作用域是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>request</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>或者在方法体内</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>connection</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>一样每次用都获取新连接用完必须关闭</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>SqlSessionFactory一旦创建就会一直在整个应用存在，没有理由销毁，所以写到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>util static</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>里创建一次那么这种存在于整个应用运行期间，并且同时只能存在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>一个对象实例就是单例模式</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>resultType</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		select</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>标签得设置返回类型</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>增删改不用因为接口返回类型是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>boolean</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>就返回</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>true</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>int</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>就返回</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>1    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>两者都不用设置参数类型</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>方法返回类型为实体类</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		resultType</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>就写实体类      但必须保证只能查到一条数据 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>方法返回类型为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>list</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>类型</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		resultType</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>就写实体类      直接返回</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>list	</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>返回单条记录返回类型为Map&lt;String,Object&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>,key</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>就是字段名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>值就是对应的值 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	resultType</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>写</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>map</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>返回多条记录方法上加@MapKey("author")指定</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>key</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>为哪个字段</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>表里叫啥这就写啥</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	     	       </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>返回类型为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Map&lt;Integer,News&gt; ,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>键是指定的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>key,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>值是一条记录</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> 	resultType</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>写</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>map					</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	resultMap="MyEmp" 			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>这个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>MyEmp</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>对应的是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>resultMap</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>标签里的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>id</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>     </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>标签里的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>type="map" 		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>跟上面</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>resultMap</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>规律一样</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		                  type="entity.News"		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>返回单条方法返回值可以用实体类</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	column=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>从数据库中查询的字段名    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>property=</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>对应赋值给实体类的那个对象</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>一对一关系：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		&lt;resultMap type="entity.News" id="MyEmp2"&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;id column="id" property="id"/&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;result property="name" column="name"/&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;!-- property指定哪个属性是联合的对象 --&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;!-- javaType指定这个属性对象的类型 --&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>association </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>property="user" javaType="entity.User"&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>				&lt;result column="name" property="name"/&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;/association&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>或            </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>实体类</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>user</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的值为从</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>test</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>接口的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>get</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>方法获取到，传的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>id</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>为新闻表查到的标题</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>id</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;association property="user" select="dao.TestMapper.getIdUser" column="title_id"&gt; &lt;/association&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>用于一对多  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>property</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>为集合引用名    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ofType</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>为集合泛型类型：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		&lt;resultMap type="entity.Title" id="getTitle "&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;result property="id" column="id"/&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;result property="name" column="name"/&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;collection property="newss" ofType="entity.News"&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>				&lt;result property="id" column="id1"/&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>				&lt;result property="title_id" column="title_id"/&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			&lt;/collection&gt; </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		&lt;/resultMap&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>默认情况下</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>resultMap</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>会自动匹配所有，但是加了内部嵌套就得改变</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>setting</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>里的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>value</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>才能自动匹配</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>  &lt;association property="hotelXx" select="cn.travel.mapper.commentMapper.findHotelScore" column="id"&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>        &lt;/association&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>        &lt;collection property="labelDics" column="id" select="cn.travel.mapper.LabelDicMapper.findHotelFeature"&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>        &lt;/collection&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>paramType</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>参数为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>List</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>类型 下面用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>list[0]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>方式来获取具体值</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>单个普通参数 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>用什么名字接收都可以</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>单个实体类参数</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>对应实体类属性就可以了</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> 多个参数实体类最好，不行的话就：</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>多个参数会被封装成一个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>map	#{}</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>就是从</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>map</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>中获取执行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>key</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的值     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>key</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>:param1,paramN,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>也可以在参数前面加上      </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>@Param("id")int id,@Param("author")String author     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>key</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>就会使用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>param</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>注解使用的值</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	@param</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>修饰的实体类也是   比如</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>author</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>是实体类就</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>author.id</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>就行</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>如果参数为实体类和其他</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	#{param1.lastName}    	#{param2}</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>实体类里有个实体类可以直接</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		#{param1.user.lastName}             </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>都可以用注解</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>参数为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>map</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>直接对应</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>key</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>取值</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	${}		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>表示拼接</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>sql</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>串</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>将接收到的参数的内容不加任何修饰拼接在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>sql</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>中</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	 like '%${</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>value</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>}%'	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>模糊查询            </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>  参数 为普通类型参数 而且不用注解 只能写</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>value</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>#</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>实现模糊查询</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		            like concat ('%',#{id},'%')</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>插入主表之后要插入子表 所以要获取主表的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>id	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>只需在插入标签里嵌套一个：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>将查询到主键值赋值为实体类中哪个属性        之后查</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	id</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>字段在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>java</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>中的类型</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		&lt;selectKey keyProperty="id" order="AFTER" resultType="java.lang.String"&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			select last_insert_id()		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		&lt;/selectKey&gt;			</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>然后输出指定的那个对象的属性就可以了 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	boolean s=mapper.insertUser(b);   System.out.println(b.getId());</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>relation</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>关系</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>地图</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>映射</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			map</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>config</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>配置</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Factory</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>工厂</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Builder</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>生成器</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	column			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>列</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	property			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>性能</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>属性</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	association 		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>联合</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>协会</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>163195</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>377825</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>95885</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10995660" y="10221595"/>
-          <a:ext cx="7281545" cy="1761490"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>269</xdr:row>
-      <xdr:rowOff>56515</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10266045" y="44051220"/>
-          <a:ext cx="4547235" cy="5200015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
-      <xdr:row>258</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>162560</xdr:colOff>
-      <xdr:row>265</xdr:row>
-      <xdr:rowOff>124460</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="文本框 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="635" y="47259240"/>
-          <a:ext cx="8803005" cy="1328420"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>mybatis</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>开发</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>dao</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>方法</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>写一个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>mapper</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>包里面</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>userMapper</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>接口 相当于</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>dao</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>接口</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>写</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>mapper xml</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>文件</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>247</xdr:row>
-      <xdr:rowOff>29210</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="文本框 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="352425" y="37286565"/>
-          <a:ext cx="9923145" cy="7914005"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>核心配置文件：</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	configuration</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	properties</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	settings		设置mybatis中的一些行为</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>&lt;setting name="autoMappingBehavior" value="NONE"/&gt;  	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>config</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>设置这个不会把没设置映射的也获取到</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>FULL	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>自动匹配</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		PARTIAL(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>默认</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>)	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>自动匹配有内部嵌套除外</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>typeAliases		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>配置类型别名</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		&lt;typeAlias alias="news" type="entity.News"/&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		&lt;package name="entity"/&gt;		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>设置</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>resulttype</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>和resultMap的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>type</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>属性的时候不用带</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>里的前缀</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	environments	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>配置多套运行环境  如开发，测试，生产</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>添加</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>dtd</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>方法：打开如图位置 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>file system</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>找到路径然后    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>key type</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>默认的不用改    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>key</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>写</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>public </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>里面的内容</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>setting</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>设置</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Behavior</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>行为</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>full			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>完全的</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Aliases</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>别名</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>environment		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>环境</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>616585</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>151765</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>103505</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>94615</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11726545" y="2712085"/>
-          <a:ext cx="6893560" cy="3234690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>380365</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>135890</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>189230</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>55880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10255885" y="37260530"/>
-          <a:ext cx="7215505" cy="6686550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>123190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>334</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>27305</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5352,7 +721,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="51329590"/>
+          <a:off x="9525" y="123190"/>
           <a:ext cx="13912215" cy="9779635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5387,780 +756,6 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
-            <a:t>动态</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
-            <a:t>sql</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
-            <a:t>：</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>如果一个参数为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>null</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>的话就不把它当作条件在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>select</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>标签里嵌套</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		&lt;if test="param1 != null and param1 != ''"&gt;		and id=#{param1}</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>大于小于号如果报错写</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> &amp;gt;	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>&amp;lt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	if+where	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>如果</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>where</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>标签内有有返回值就加个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>where</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>，若是以</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>and</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>或</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>or</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>开头会自动剔除</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	if+trim	prefix  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>如有内容就加里面的东西    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t> prefixOverrides</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>如首个内容进行指定的忽略</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>里面写</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>and</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>就会把第一个满足的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>if</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>里面的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>and</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>忽略掉</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		suffix   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>trim</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>包含的内容上加后缀</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	suffixOverrides	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>对</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>trim</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>里包含的最后满足</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>if</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>的最后选择忽略些东西</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	 if+set	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>把</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>set</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>代码都写到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>set</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>标签里</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>会把末位</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>if</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>里面的内容逗号取消掉</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>参数为数组类型 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>&lt;foreach collection="array" item="rid" open="(" separator="," close=")"&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>			item 	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>每个元素被迭代时的别名</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>			open	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>表示该语句用什么开始</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>			separator   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>每次循环用什么分隔</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>			close 	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>用什么结束</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>collection  数组</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>array </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>集合 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>list   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>若为多参数则封装成一个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>map</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>处理 或  写成param1或写注解</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>对应的就为注解名字和键名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		choose	&lt;when test="param1 !=null"&gt;    otherwise		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>嵌套在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>choose</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>里满足when执行里面内容并跳出 都不满足执行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>otherwise</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>大小与号</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>prefix  			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>前缀</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>suffix   			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>后缀</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>trim			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>修剪</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>整理</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>item</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>一则</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>项目</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>separator   		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>分离器</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>分隔符</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>choose			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>选择</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>when 			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>当</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>.....</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>时</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>otherwise			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>否则</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>action			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>行动</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>stack			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>堆</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>trace			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>痕迹</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>other			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>其他的</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
             <a:sym typeface="+mn-ea"/>
           </a:endParaRPr>
@@ -6171,99 +766,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>90170</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>616585</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>52070</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11889105" y="15269210"/>
-          <a:ext cx="6009640" cy="1790700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>147955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>48260</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10789920" y="19533235"/>
-          <a:ext cx="7157720" cy="1924050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>334</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>27305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>499</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>177165</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -6273,7 +784,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28575" y="61109225"/>
+          <a:off x="28575" y="9902825"/>
           <a:ext cx="12933045" cy="30325060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7473,13 +1984,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>385</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>122555</xdr:colOff>
-      <xdr:row>416</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7490,14 +2001,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8736330" y="70459600"/>
+          <a:off x="8736330" y="19253200"/>
           <a:ext cx="9902825" cy="5668645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7515,13 +2026,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>533</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>161290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>581</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -7531,7 +2042,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="97636330"/>
+          <a:off x="9525" y="46429930"/>
           <a:ext cx="11681460" cy="8692515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8092,13 +2603,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>635</xdr:colOff>
-      <xdr:row>528</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>181610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>275590</xdr:colOff>
-      <xdr:row>533</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8109,14 +2620,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="96742250"/>
+          <a:off x="635" y="45535850"/>
           <a:ext cx="8298815" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8134,13 +2645,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>418</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>24765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>567055</xdr:colOff>
-      <xdr:row>428</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8151,14 +2662,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9237980" y="76468605"/>
+          <a:off x="9237980" y="25262205"/>
           <a:ext cx="9845675" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8176,13 +2687,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>605</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>446405</xdr:colOff>
-      <xdr:row>689</xdr:row>
+      <xdr:row>409</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -8192,7 +2703,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="200025" y="110747175"/>
+          <a:off x="200025" y="59540775"/>
           <a:ext cx="13825220" cy="15339695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8793,13 +3304,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>689</xdr:row>
+      <xdr:row>409</xdr:row>
       <xdr:rowOff>36830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>356235</xdr:colOff>
-      <xdr:row>757</xdr:row>
+      <xdr:row>477</xdr:row>
       <xdr:rowOff>154940</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -8809,7 +3320,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="126041150"/>
+          <a:off x="38100" y="74834750"/>
           <a:ext cx="13279755" cy="12553950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9802,13 +4313,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>401955</xdr:colOff>
-      <xdr:row>689</xdr:row>
+      <xdr:row>409</xdr:row>
       <xdr:rowOff>153670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>58420</xdr:colOff>
-      <xdr:row>704</xdr:row>
+      <xdr:row>424</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9819,14 +4330,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13363575" y="126157990"/>
+          <a:off x="13363575" y="74951590"/>
           <a:ext cx="3977005" cy="2640330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9844,13 +4355,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>340995</xdr:colOff>
-      <xdr:row>704</xdr:row>
+      <xdr:row>424</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>258445</xdr:colOff>
-      <xdr:row>713</xdr:row>
+      <xdr:row>433</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9861,14 +4372,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13302615" y="128899920"/>
+          <a:off x="13302615" y="77693520"/>
           <a:ext cx="4855210" cy="1531620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9886,13 +4397,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>714</xdr:row>
+      <xdr:row>434</xdr:row>
       <xdr:rowOff>65405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>724</xdr:row>
+      <xdr:row>444</xdr:row>
       <xdr:rowOff>78740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9903,14 +4414,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13320395" y="130641725"/>
+          <a:off x="13320395" y="79435325"/>
           <a:ext cx="5112385" cy="1842135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9928,13 +4439,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>448310</xdr:colOff>
-      <xdr:row>583</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>13970</xdr:colOff>
-      <xdr:row>615</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9945,14 +4456,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14027150" y="106673015"/>
+          <a:off x="14027150" y="55466615"/>
           <a:ext cx="6355080" cy="5906770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9970,13 +4481,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>615</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>113665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>438785</xdr:colOff>
-      <xdr:row>649</xdr:row>
+      <xdr:row>369</xdr:row>
       <xdr:rowOff>170815</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9987,14 +4498,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14104620" y="112584865"/>
+          <a:off x="14104620" y="61378465"/>
           <a:ext cx="5467985" cy="6275070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10012,13 +4523,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>503555</xdr:colOff>
-      <xdr:row>652</xdr:row>
+      <xdr:row>372</xdr:row>
       <xdr:rowOff>17780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>548005</xdr:colOff>
-      <xdr:row>686</xdr:row>
+      <xdr:row>406</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10029,14 +4540,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14082395" y="119255540"/>
+          <a:off x="14082395" y="68049140"/>
           <a:ext cx="9302750" cy="6381115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10054,13 +4565,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>769</xdr:row>
+      <xdr:row>489</xdr:row>
       <xdr:rowOff>122555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>225425</xdr:colOff>
-      <xdr:row>871</xdr:row>
+      <xdr:row>591</xdr:row>
       <xdr:rowOff>133985</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -10070,7 +4581,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="219075" y="140757275"/>
+          <a:off x="219075" y="89550875"/>
           <a:ext cx="12967970" cy="18665190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12527,13 +7038,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>359410</xdr:colOff>
-      <xdr:row>814</xdr:row>
+      <xdr:row>534</xdr:row>
       <xdr:rowOff>24130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>835</xdr:row>
+      <xdr:row>555</xdr:row>
       <xdr:rowOff>167005</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12544,14 +7055,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13321030" y="148888450"/>
+          <a:off x="13321030" y="97682050"/>
           <a:ext cx="5401310" cy="3983355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12569,13 +7080,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>635</xdr:colOff>
-      <xdr:row>893</xdr:row>
+      <xdr:row>613</xdr:row>
       <xdr:rowOff>42545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>151765</xdr:colOff>
-      <xdr:row>952</xdr:row>
+      <xdr:row>672</xdr:row>
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -12585,7 +7096,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="163354385"/>
+          <a:off x="635" y="112147985"/>
           <a:ext cx="13112750" cy="10864850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13626,13 +8137,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>151765</xdr:colOff>
-      <xdr:row>894</xdr:row>
+      <xdr:row>614</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>265430</xdr:colOff>
-      <xdr:row>921</xdr:row>
+      <xdr:row>641</xdr:row>
       <xdr:rowOff>46990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13643,14 +8154,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13113385" y="163563300"/>
+          <a:off x="13113385" y="112356900"/>
           <a:ext cx="6903085" cy="4916170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13668,13 +8179,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>926</xdr:row>
+      <xdr:row>646</xdr:row>
       <xdr:rowOff>83185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>376555</xdr:colOff>
-      <xdr:row>953</xdr:row>
+      <xdr:row>673</xdr:row>
       <xdr:rowOff>93980</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13685,14 +8196,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13274040" y="169430065"/>
+          <a:off x="13274040" y="118223665"/>
           <a:ext cx="5619115" cy="4948555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13710,13 +8221,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>962</xdr:row>
+      <xdr:row>682</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>427355</xdr:colOff>
-      <xdr:row>1004</xdr:row>
+      <xdr:row>724</xdr:row>
       <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -13726,7 +8237,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114300" y="176073435"/>
+          <a:off x="114300" y="124867035"/>
           <a:ext cx="13891895" cy="7663815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14171,13 +8682,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>440055</xdr:colOff>
-      <xdr:row>977</xdr:row>
+      <xdr:row>697</xdr:row>
       <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>48895</xdr:colOff>
-      <xdr:row>986</xdr:row>
+      <xdr:row>706</xdr:row>
       <xdr:rowOff>80645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14188,14 +8699,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="440055" y="178763295"/>
+          <a:off x="440055" y="127556895"/>
           <a:ext cx="5163820" cy="1637030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14213,13 +8724,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>977</xdr:row>
+      <xdr:row>697</xdr:row>
       <xdr:rowOff>73660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>595630</xdr:colOff>
-      <xdr:row>987</xdr:row>
+      <xdr:row>707</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14230,14 +8741,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6292850" y="178747420"/>
+          <a:off x="6292850" y="127541020"/>
           <a:ext cx="4795520" cy="1913890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14255,13 +8766,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>1007</xdr:row>
+      <xdr:row>727</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>568960</xdr:colOff>
-      <xdr:row>1055</xdr:row>
+      <xdr:row>775</xdr:row>
       <xdr:rowOff>93980</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -14271,7 +8782,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="184198260"/>
+          <a:off x="7620" y="132991860"/>
           <a:ext cx="12905740" cy="8834120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17812,22 +12323,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="V94:X711"/>
+  <dimension ref="V431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="N275" sqref="N275"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A769" workbookViewId="0">
+      <selection activeCell="I782" sqref="I782"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="94" spans="24:24">
-      <c r="X94" t="s">
+    <row r="431" spans="22:22">
+      <c r="V431" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="711" spans="22:22">
-      <c r="V711" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17843,7 +12349,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A28" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>

--- a/study/SSM.xlsx
+++ b/study/SSM.xlsx
@@ -26,10 +26,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -48,7 +48,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -61,8 +97,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,7 +107,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,7 +123,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,46 +153,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,13 +193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +205,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,25 +235,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,37 +277,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,37 +307,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,13 +325,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,7 +361,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,59 +389,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,6 +426,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -492,10 +492,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -504,19 +504,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,112 +525,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -773,9 +773,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>177165</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -785,7 +785,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28575" y="9902825"/>
-          <a:ext cx="12933045" cy="30325060"/>
+          <a:ext cx="12940665" cy="31837630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1183,843 +1183,10 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>然后在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>serviceImpl</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>类上加</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	@Transactional </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>注解这样即可为该类的所有业务方法统一添加事务处理，如果某一个业务需要采用不同的事务规则，可以在业务方法上添加@Transactional(propagation = Propagation.SUPPORTS)注解单独设置</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>多个属性逗号隔开</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>默认的设置为： </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>事务传播设置是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	PROPAGATION_REQUIRED</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>事务隔离级别是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	ISOLATION_DEFAULT</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>事务是读</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>写</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>事务超时默认是依赖于事务系统的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>或者事务超时没有被支持</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>任何</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>RuntimeException</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>将触发事务回滚</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>但是任何</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>checked Exception</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>将不触发事务回滚</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>有一个单添加方法和多添加方法</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>多添加方法里面执行了两遍单添加</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>propagation传播机制：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>当事务方法被另一个事务方法调用时</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>可以理解为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>被调用者必须指定事务应该如何传播</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		required		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>默认值</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>执行该方法时，如果已经存在一个事务就用当前的，没有的话则开启自己的事务</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>在多添加中执行到单添加的时候判断如果已经存在事务那么就用多添加自带的事务，那么就是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>本书必须一起成功或一起失败</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		REQUIRES_NEW	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>总是开启新事务，如果方法内存在另一个事务，则将它挂起</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>如果已经存在事务那么久把他吊起</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>用自己的事务</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>那么</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>本书有可能会发生一本成功</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>另一本失败</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>因为每个单添加都是单一的事务吗</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		SUPPORTS		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>更多适用于查询，如果存在于一个事务中就加入到事务运行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>如果没事务就非事务方法运行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>查询事务重要性不是很大</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
-            <a:t>isolation:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-            <a:t>事务的隔离等级</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>即当前事务和其他事务的隔离程度</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>在并发事务处理的情况下需要考虑它的设置</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		read_uncommitted		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>未提交读</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		read_committed		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>提交读</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		repeatable_read		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>可重复读</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		serializable		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>可串行读</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
-            <a:t>timeout:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-            <a:t>事务超时事件</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>。允许事务运行的最长时间</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>以秒为单位</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>超过给定的事件自动回滚</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>防止事务执行时间过长影响性能</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>默认不超时</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>可以再方法加</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>thread.sheep</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>测试</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
-            <a:t>read-only:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-            <a:t>事务是否为只读</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>默认</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>false,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>对于只执行查询功能的事务</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>把他设置为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>true</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>能提高性能</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
-            <a:t>rollback-for:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-            <a:t>设定能够触发回滚的异常类型。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>Spring</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>默认只在抛出</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>runtimeException</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>时才回滚</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>可以通过全限定类名自行指定需要回滚事务的异常</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>多个用逗号隔开</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
-            <a:t>no-rollback-for:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-            <a:t>设定不触发回滚的异常类型</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>默认</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>checked Exception </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>不会触发回滚</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	@Transactional(noRollbackFor = {RuntimeException.class})</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>destroy			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>破坏</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>advice 			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>通知</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>				</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>为指定管理器设置属性</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>annotation			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>注释，注解</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>propagation </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>传播机制</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>isolation			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>隔离</a:t>
-          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>122555</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>50165</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="图片 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8736330" y="19253200"/>
-          <a:ext cx="9902825" cy="5668645"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2620,7 +1787,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2629,48 +1796,6 @@
         <a:xfrm>
           <a:off x="635" y="45535850"/>
           <a:ext cx="8298815" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>24765</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>567055</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>24765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="图片 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9237980" y="25262205"/>
-          <a:ext cx="9845675" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4330,7 +3455,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4372,7 +3497,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4414,7 +3539,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4456,7 +3581,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4498,7 +3623,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4540,7 +3665,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7055,7 +6180,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8154,7 +7279,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8196,7 +7321,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8699,7 +7824,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8741,7 +7866,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10235,1775 +9360,6 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>线程不安全的都得写到方法体内</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>右键已经导入好的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>mybatis</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>包选择</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>properties ----- java source----external  file</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>把原码</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>jar</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>导入</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>然后进入原码也许会再让选择一下路径即可</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>原码</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>核心配置文件必须按顺序排</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	openSession</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>方法可以传一个参数</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>boolean  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>用来是否自动提交</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>两个不同</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>mapper</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>文件子元素的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>id</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>可以相同</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>每个类在指定多参构造一定要在写一个无参的，避免很多错误</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>创建项目的时候 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>next*2   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>有一个自动创</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>web.xml</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>在本项目中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>监听器初始化spring(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>获取已经注入进去的实例需要启动</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>spring</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>容器</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>)  ，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>是为了初始化公共的配置文件</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>(applicationContext-mybatis)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>和一些单独</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>config</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>而controll</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的扫描要放在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>springmvc  Config</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	classpathapplication初始化</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>了之后。在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>getBean</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>之前就已经有值了，springmvc无法通过main方法这样初始化，所以就监听器</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	${pageContext.request.contextPath}		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>项目名</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	json</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>中文乱码  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>406</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>错误    表示客户端浏览器不接收所请求页面的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>MIME</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>类型。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>resultMapping</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>value</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>属性去掉</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>html,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>因为由此后缀</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>,mvc</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>会以</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>HTML</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>格式来显示响应信息</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>修改的话就给</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>controll</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>传过去</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>id,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>方法里查数据返回模型</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>之后点击修改跳到修改</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>save</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>方法</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>根据传过来的模型修改成功跳页面</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	project	clean	cleanProjectsSelectedBelow	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>可以重新编译</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>想在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>control</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>加切面必须把切面自动代理写到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>mvc</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>配置文件中</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	 &lt;%pageContext.setAttribute("path",request.getContextPath());%&gt; 	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>最上面加这个  下面就可以直接</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>${path}</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	&lt;input type="hidden" id="path" value="${path}"&gt;			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>用于</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>ajax</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>的时候</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>做分页的话</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>dao</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>service</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>都用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>start,end</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>为参数</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>control</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>currPage</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>把</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>start</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>计算好传入</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>service</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>如果页面上用include引入头和尾了</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>那么不仅</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>head</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>需要改编码格式那一句话</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>引入</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>head</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>的页面也需要加上最顶部改编码格式那句话</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>拦截器要返回</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>inf</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>里面的页面直接跳到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>control</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>来返回呀</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>之外的就直接返回就可以了</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>登录方法写</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>if</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>判断如果</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>为空则查所有，不为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>null</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>查该账户，不用写两个方法了</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>右键项目</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>build path------libraries-----add  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>libraries-----Junit----Junit4</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	controller</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>方法有参数的话会直接传到页面。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>待考察</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>idea</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>里普通</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>web</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>项目运行出</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>servlet</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>啥错可以去添加依赖那，添加</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>library</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>把</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>tomcat</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>加进去</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>运行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>tomcat</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的话  ，得把项目的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>war</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>加到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>tomcat</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>依赖里面</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>idea</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>里如果没有</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>web</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>文件夹可以在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Strictire</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>里</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>modules+</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>一个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>web</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>并改一下上方</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>webxml</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>路径和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>web</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>路径</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>如果有关于lombok找不到符号错误可以去</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>setting--Compiler--Annotion Processors----enable annotation </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>打钩</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	configuration annotation processor not found in classpath	类路径中没有配置注释处理器</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>mybatis.mapper-locations=classpath:mybatis/mapper/*.xml</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>这个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>classpath</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>后都得用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>公共的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>pom</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>放到总共成里</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	页面将数据传到后台，是以字符串的形式。所以时间格式会出错。加上此注解，后台可解析时间格式的字符串@DateTimeFormat(pattern = "yyyy-MM-dd HH:mm:ss" )</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	SELECT * FROM company  WHERE id = NULL </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	UPDATE company SET NAME = NULL WHERE id=1	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>修改可以不做</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>null</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的判断，等于</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>null</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>那就改成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>null</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，查询不行等于</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>null</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>查询等于</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>null</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的查不到</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	mybatis</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>里</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>if</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>动态</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>sql</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>如果打小与错误可以写成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t> &amp;gt;	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>&amp;lt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>	There is no getter for property named 'cid' in 'class java.lang.String'	在class java.lang.String中没有属性'cid'的getter</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:sym typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
             <a:t>	</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
@@ -12325,8 +9681,8 @@
   <sheetPr/>
   <dimension ref="V431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A769" workbookViewId="0">
-      <selection activeCell="I782" sqref="I782"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="Z270" sqref="Z270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -12349,7 +9705,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
